--- a/app/borrar.xlsx
+++ b/app/borrar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Tipo</t>
   </si>
@@ -61,9 +61,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Ingreso</t>
   </si>
   <si>
@@ -76,214 +73,178 @@
     <t>--</t>
   </si>
   <si>
+    <t xml:space="preserve">INTERESES DEVENGADOS OVERNIGHT CAPITAL TRABAJO    </t>
+  </si>
+  <si>
     <t xml:space="preserve">INTERESES OVERNIGHT CAPITAL TRABAJO               </t>
   </si>
   <si>
+    <t xml:space="preserve">PROVISION  COMISIONES Y GASTOS BANCARIOS EXTERIOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERESES SOBRE CUPONES PORTAFOLIO EURO           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YPFB - EXPORTACION DE UREA Y OTROS                </t>
+  </si>
+  <si>
     <t>VALORACION TITULOS DE LAS RESERVAS INTERNACIONALES</t>
   </si>
   <si>
+    <t xml:space="preserve">GARANTIA POR ACREDITIVOS - INST. DESC.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-H-307 DIREC.GRAL DE AERONAUTICA CIVIL-REC.PROP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISA-CUENTA CORRIENTE Y DE ENCAJE                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCO.GANADERO-CUENTA CORRIENTE Y DE ENCAJE         </t>
+  </si>
+  <si>
     <t xml:space="preserve">BCO.DE CREDITO-CUENTA CORRIENTE Y DE ENCAJE       </t>
   </si>
   <si>
-    <t xml:space="preserve">INTERESES SOBRE CUPONES PORTAFOLIO EURO           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANCO FASSIL S.A. CUENTA CORRIENTE Y DE ENCAJE    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-H-307 DIREC.GRAL DE AERONAUTICA CIVIL-REC.PROP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCO.GANADERO-CUENTA CORRIENTE Y DE ENCAJE         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISA-CUENTA CORRIENTE Y DE ENCAJE                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YPFB - EXPORTACION DE UREA Y OTROS                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMISIONES DEVENGADAS POR COBRAR - FPA            </t>
+    <t xml:space="preserve">DEPOSITOS SISTEMA FINANCIERO - OP. CAMBIARIAS     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAS. CTES. FISC. CORRESP. -BCO.UNION             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTA UNICA DEL TESORO EN DOLARES AMERICANOS     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCB - AASANA CENTRAL 000070078200 - FDOS.COMPR.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YPFB - HEROES DEL CHACO                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YPFB - CTA. EXPORTACION DE GLP Y OTROS            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YPFB OPERACIONES FINANCIERAS EXTRAORDINARIAS      </t>
   </si>
   <si>
     <t xml:space="preserve">NEW YORK - CTA. 3544020682001                     </t>
   </si>
   <si>
-    <t xml:space="preserve">CUENTA UNICA DEL TESORO                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTAS. CTES. FISC. CORRESP. -BCO.UNION             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YPFB - CTA. EXPORTACION DE GLP Y OTROS            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCB - AASANA CENTRAL 000070078200 - FDOS.COMPR.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUENTA UNICA DEL TESORO EN DOLARES AMERICANOS     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACREED.DIVERSOS -OPERACIONES CAMBIARIAS           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECAUDACIONES CONSULARES                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLARES AMERICANOS EN CORRESPONSAL BCO.UNION      </t>
-  </si>
-  <si>
     <t xml:space="preserve">BCO.UNION-CUENTA CORRIENTE Y DE ENCAJE            </t>
   </si>
   <si>
-    <t>POR CUENTA DE UNIVERSAL MISSION SUPPORT COMPANY L1150 GEMINIHOUSTON.</t>
-  </si>
-  <si>
-    <t>POR CUENTA DE UNITED AIRLINES, INC.</t>
-  </si>
-  <si>
-    <t>POR CUENTA DE CUBANA DE AVIACION S.A.</t>
-  </si>
-  <si>
-    <t>P. CTA. DE HINOVE AGROCIENCIA S.A</t>
-  </si>
-  <si>
-    <t>POR CUENTA DE ACGT QUIMICA LTDA - ME.</t>
-  </si>
-  <si>
-    <t>P. CTA. DE HINOVE AGROCIENCIA S.A.</t>
-  </si>
-  <si>
-    <t>('±', 9506985.2)</t>
-  </si>
-  <si>
-    <t>LIB. 00010011102 MIN.RELACIONES EXTERIORES - GESTORIA CONSULAR LEY Nº 3108</t>
-  </si>
-  <si>
-    <t>CTA. 1-13550161 COMIBOL - EMPRESA METALURGICA KARACHIPAMPA</t>
-  </si>
-  <si>
-    <t>CTA. 5970 CUENTA UNICA DEL TESORO DOLARES AMERICANOS LIB. 00099021001</t>
-  </si>
-  <si>
-    <t>(CC:H-0000056-2022)</t>
-  </si>
-  <si>
-    <t>(CC:H-0000057-2022)</t>
-  </si>
-  <si>
-    <t>(CC:H-0000058-2022)</t>
-  </si>
-  <si>
-    <t>(CC:H-0000059-2022)</t>
+    <t xml:space="preserve">TGN CUENTA TRANSITORIA- M/E                       </t>
+  </si>
+  <si>
+    <t>('±', 215004479.17)</t>
+  </si>
+  <si>
+    <t>('±', 150473.06)</t>
+  </si>
+  <si>
+    <t>POR CUENTA DE FERTIMAN INDUSTRIA E COMERCIO DE FERTILIZANTES LTDA.</t>
+  </si>
+  <si>
+    <t>(CC:H-0044417-2021) I-2021-10 VTA. DIVISAS S/G NOTA CEASS/UAF/CONTA/NOT-EXT 34/2021, 14/06/2021 Y ASIG. DIV. EFECT. P/MEFP 30/04/2021 REF.: LC I-2021-10 P/C CENTRAL DE ABASTECIMIENTO Y SUMINISTROS DE SALUD - CEASS, A/F VEGAL FARMACEUTICA S.L., COM. EMIS.</t>
+  </si>
+  <si>
+    <t>POR CUENTA DE TAMPA CARGO SAS.</t>
+  </si>
+  <si>
+    <t>CTA. 1-4713413 COMIBOL -  EMPRESA MINERA COROCORO</t>
+  </si>
+  <si>
+    <t>LIB. 00099021001 TGN-RECURSOS ORDINARIOS-DOLARES AMERICANOS (5970)</t>
+  </si>
+  <si>
+    <t>('±', 99200000.0)</t>
   </si>
   <si>
     <t xml:space="preserve">AJUSTE COMPLEMENTARIO POR REVALORIZACION SALDOS DE ACTIVOS DE RESERVA Y OBLIGACIONES MONEDA EXTRANJERA (DOLARES)                                                                                                                                                                                            </t>
   </si>
   <si>
-    <t xml:space="preserve">AJUSTE POR ARBITRAJE DE SALDOS DE ACTIVOS DE RESERVA Y OBLIGACIONES EN MONEDAS DE ORIGEN AL 7/1/2022 S/G TABLA DE COTIZACIONES                                                                                                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJUSTE COMPLEMENTARIO POR ARBITRAJE DE SALDOS DE ACTIVOS DE RESERVA Y OBLIGACIONES EN MONEDAS DE ORIGEN AL 7/1/2022 S/G TABLA DE COTIZACIONES                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'INTERESES DEVENGADOS SOBRE DEPOSITOS'||OVERNIGHT PACTADO EN EL STANDARD CHARTERED BANK NY DEL 6 AL 7 DE ENERO 2022 CAPITAL USD 583.445.887,15  S/G SWIFT N° 202 ADJUNTO.                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||REVALORACIÓN  DE TITULOS  A PRECIOS DE MERCADO SEGUN CUADRO ADJ. AL  7 DE ENERO DE 2022, CORRESPONDIENTE AL PORTAFOLIO  DE LIQUIDEZ S/G ANTC.ADJ.                                                                                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSF.DE FONDOS DEL EXTERIOR SEGUN SWIF NO.231 DE LA FECHA, ORDENANTE BANCO DE CREDITO DE BOLIVIA S.A..                                                                                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||INTERESES DEVENGADOS AL 07  DE ENERO  DE   2022, DEL PORTAFOLIO  GLOBAL  EN EUROS  S/G ANTEC. ADJ .                                                                                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSF.DE FONDOS DEL EXTERIOR SEGUN SWIF NO.232 DE LA FECHA, ORDENANTE BANCO FASSIL S.A.                                                                                                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJE SWIFT NRO. 189 DE LA FECHA, Y NOTA CITE: DGAC/1573/16 DE FECHA 05/05/2016 (HRE-TGL-6755).  (SECTOR PÚBLICO - SOBREVUELOS).                                                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJES SWIFT NROS. 194 Y 192 DE LA FECHA, Y NOTA CITE: DGAC/1573/16 DE FECHA 05/05/2016 (HRE-TGL-6755).  (SECTOR PÚBLICO - SOBREVUELOS).                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSF.DE FONDOS DEL EXTERIOR SEGUN SWIFT NO.238 DE LA FECHA, ORDENANTE BANCO GANADERO S.A.                                                                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSF.DEL EXTERIOR SEGUN SWIFT NO.246 DE LA FECHA, ORDENANTE BANCO BISA S.A.                                                                                                                                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJE SWIFT NRO. 229 DE LA FECHA, Y NOTA CITE: DGAC/1573/16 DE FECHA 05/05/2016 (HRE-TGL-6755).  (SECTOR PÚBLICO - SOBREVUELOS).                                                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJES SWIFT NROS. 240 Y 239 DE LA FECHA (SECTOR PÚBLICO - EXPORTACIONES).                                                                                                                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJE SWIFT NRO. 184   DE LA FECHA (SECTOR PÚBLICO - EXPORTACIONES).                                                                                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJES SWIFT NROS. 243 Y 242 DE LA FECHA (SECTOR PÚBLICO - EXPORTACIONES).                                                                                                                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">||COBRO DE COMISION 0,05% POR ADMINISTRACION DEL FONDO DE PROTECCION DEL ASEGURADO CORRESPONDIENTE AL CUARTO TRIMESTRE 2021, SEGUN PLANILLA ADJUNTA DE LA GOI.                                                                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DE FONDOS DE LA CUENTA CTR_SCB 3544020682001 A LA CUENTA CTR_BOA 1901-3-28200 POR UN MONTO DE USD 9.506.985,20 CON FECHA VALOR 07-01-2022                                                                                                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.220 DE FECHA 07/01/2022 ORDENANTE: CONSULADO DE BOLIVIA EN VALENCIA-ESPAÑA REF:GESTORIA                                                                                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NOS.223-224 DE FECHA 07/01/2022 ORDENANTE: MUFF TRADING AG                                                                                                                                                                                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.219 Y NO.218 DE FECHA 07/01/2022 ORDENANTE: OLEODUCTO SUR DEL PERU S.A.C. (LIMA PERU) REF.: CRED Z182792001 - 20220106-00267245 FECHA VALOR 7/01/2022                                                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.193 Y NO.191 DE FECHA 07/01/2022 ORDENANTE: UNITED AIRLINES, INC. REF.: INT/YKYC61112021                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.190 DE FECHA 07/01/2022 ORDENANTE: UNIVERSAL MISSION SUPPORT COMPANY (HOUSTON) REF.: 2216B4936QWF1N65 - 0400255                                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGO A CAF PRÉSTAMO CFA008604 VCTO. 07-01-2022 POR CUENTA DE TGN , NTI. 015622 VALOR 07-01-2022 CAPITAL USD 5.010.879,05 INTERESES USD 848.528,14 COMISIONES USD 99.640,67                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGO A CAF PRÉSTAMO CFA008606 VCTO. 07-01-2022 POR CUENTA DE TGN , NTI. 015623 VALOR 07-01-2022 CAPITAL USD 3.129.897,54 INTERESES USD 407.351,41 COMISIONES USD 10.688,39                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO TRANSITORIO SEGUN SWIFT NO.227, HASTA CONTAR CON MAYOR INFORMACION DEL BENEFICIARIO - HVR                                                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.235 Y NO.234 DE FECHA 07/01/2022 ORDENANTE: COPAGAZ DISTRIBUIDORA DE GAS S.A. (SAO PAULO BRASIL) REF.: CVR OF DIR PYMT 07134437238 INV. FECHA VALOR 7/01/2022                                                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.236 Y NO.237 DE FECHA 07/01/2022 ORDENANTE: COPAGAZ DISTRIBUIDORA DE GAS S.A. (SAO PAULO BRASIL) REF.: CRED CVR OF DIR PYMT 07134437234 INV. FECHA VALOR 7/01/2022                                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO TRANSITORIO SEGUN SWIFT NO.203, HASTA CONTAR CON MAYOR INFORMACION DEL BENEFICIARIO - HVR                                                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVALORACIÓN DE TÍTULOS AL 07-01-2022, PORTAFOLIO EURO, POR UN MONTO DE EUR 72.658,54                                                                                                                                                                                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO TRANSITORIO SEGUN SWIFT NO.233 HASTA IDENTIFICAR AL BENEFICIARIO AFF                                                                                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO TRANSITORIO SEGUN SWIFT NO.244 HASTA IDENTIFICAR AL BENEFICIARIO AFF                                                                                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPOSITO DE EFECTIVO, DEPOSITANTE: PATRICIA ELIANA GUISBERT ROMERO, CONCEPTO: PASAPORTE OFICIAL, CUENTA DE DEPOSITO: RECAUDACIONES CONSULARES                                                                                                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGO CHEQUE: D-21-99956     , BENEFICIARIO: EMPRESA DE TRANSPORTE DE VALORES S.A.-CLAUDIA ISABEL ARANDA MACHICADO S/P 225/2021                                                                                                                                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA DE DOLARES REALIZADA EN EL BANCO UNION S.A. SEGUN CONTRATO SANO - DLBCI N° 004/2019                                                                                                                                                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGO CHEQUE: D-21-99280     , BENEFICIARIO: MARCO ANTONIO QUISPE PATTY                                                                                                                                                                                                                                      </t>
+    <t xml:space="preserve">AJUSTE POR ARBITRAJE DE SALDOS DE ACTIVOS DE RESERVA Y OBLIGACIONES EN MONEDAS DE ORIGEN AL 4/1/2022 S/G TABLA DE COTIZACIONES                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJUSTE COMPLEMENTARIO POR ARBITRAJE DE SALDOS DE ACTIVOS DE RESERVA Y OBLIGACIONES EN MONEDAS DE ORIGEN AL 4/1/2022 S/G TABLA DE COTIZACIONES                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||LIBERACION DE DEPOSITO OVERNIGHT EN LA CAF 0,15 01/04/22 DEL 30 DE DICIEMBRE 2021 AL 4 DE ENERO 2022 CAPITAL USD 215.000.000,00 E INTERES AL VTO USD 4.479,17 S/G ANTC. ADJ.                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'INTERESES DEVENGADOS SOBRE DEPOSITOS'||COMPLEMENTO A COMPROBANTE N° 1023079 DE LA FECHA  S/G ANTC. ADJ.                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||PAGO DE COMISIONES Y GASTOS BANCARIOS EXTERIOR A JPMORGAN  PORTAFOLIO EURO POR EL MES DE DICIEMBRE 2021 S/G ANTC. ADJ.                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||INTERESES DEVENGADOS DEL PORTAFOLIO GLOBAL EN EUROS  CORRESPONDIENTES AL 4 DE ENERO 2022 S/G CUADO ADJUNTO.                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'INTERESES GANADOS'||POR OVERNIGHT AUTOMATICOS EN EL STANDARD CHARTERED BANK NY CAPITAL DE TRABAJO  CORRESPONDIENTE AL MES DE DICIEMBRE 2021 S/G ANTC. ADJ.                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJES SWIFT NROS. 051 Y 050 DE LA FECHA (SECTOR PÚBLICO - EXPORTACIONES)                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'INTERESES DEVENGADOS SOBRE DEPOSITOS'||OVERNIGHT AUTOMATICOS EN EL  STANDARD CHARTERED BANK NY   DEL  3 AL 4 DE ENERO 2022 CAPITAL USD 486.315.931,12; TASA 0,23 %   S/G SWIFT  N° 059 ADJ.                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||REVALORACION DE TITULOS A PRECIOS DE MERCADO AL 04 DE ENERO DE 2022 CORRRESPONDIENTE AL PORTAFOLIO DE LIQUIDEZ.                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'RESPUESTA AL BANQUERO POR CANCELACION DE CARTA DE CREDITO||PAGO N°2 LC I-2021-10 P/C CEASS A/F VEGAL FARMACEUTICA SL REF.: MEDICAMENTOS SEGUN CONTRATO CEASS/UAJ/CONT 56/2021                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS S/G. MENSAJES SWIFT NROS. 086 DE LA FECHA, Y NOTA CITE: DGAC/1573/16 DE FECHA 05/05/2016 (HRE-TGL-6755).  (SECTOR PÚBLICO - SOBREVUELOS).                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||TRANSFERENCIA DE FONDOS DEL EXTERIOR SEGUN SWIFT NO. 092 DE LA FECHA, ORDENANTE BANCO BISA S..A                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||TRANSF.DE FONDOS DEL EXTERIOR SEGUN EXTRACTO DEL BANQUERO DE LA FECHA, ORDENANTE BANCO GANADERO S.A.                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">||TRANSF. DE FONDOS DEL EXTERIOR SEGUN EXTRACTO DEL BANQUERO DE LA FECHA, ORDENANTE BANCO DE CREDITO DE BOLIVIA S.A.                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVALORACIÓN DE TÍTULOS AL 04-01-2022, PORTAFOLIO EURO, POR UN MONTO DE EUR 150.505,29                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DE FONDOS AL EXTERIOR SIN COMISIONES A SOLICITUD DE BANCO MERCANTIL SANTA CRUZ S.A. SEGUN SOLICITUD BMSC-0001-2022                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NOS.078-077 DE FECHA 04/01/2022 ORDENANTE: TRAFIGURA PTE LTD REF:0000WPPC.T                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.071 DE FECHA 04/01/2022 ORDENANTE: REPRESENT.PERM.DE BOLIVIA ANTE LA ORG.DE NACIONES UNIDAS EN ROMA REF:DEVOLUCION DE SALDOS NO EJECUTADOS                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.80 DE FECHA 04/01/2022 ORDENANTE: CUBANA DE AVIACION SA (BUENOS AIRES ARGENTINA) REF.: INV YKYC 19/11/2021                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.81 DE FECHA 04/01/2022 ORDENANTE: DELTA GERACAO DE ENERGIA INVESTIM (CAMPO BRASIL) REF.: YPFB GAS NATURAL 0284734 FECHA VALOR 4/01/2022                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.88 Y NO.87 DE FECHA 04/01/2022 ORDENANTE: LLAMA GAS S.A.(LIMA PERU) REF.: CRED SHA 550 1984995 FECHA VALOR 4/01/2022                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DEL EXTERIOR SEGUN SWIFT NO.83 Y NO.82 DE FECHA 04/01/2022 ORDENANTE: SHELL BOLIVIA CORPORATION BOLIVIA REF.: 1900009214 PART DI OCT DEC21 FECHA VALOR 4/01/2022                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DE FONDOS AL EXTERIOR SIN COMISIONES A SOLICITUD DE BANCO BISA S.A. SEGUN SOLICITUD BISA-0001-2022                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA DE FONDOS DE LA CUENTA CTR_SCB 3544020682001 A LA CUENTA CTR_FED 021083310 POR UN MONTO DE USD 99.200.000,00 CON FECHA VALOR 04-01-2022                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO CHEQUE: D-06-87152     , BENEFICIARIO: EMPRESA DE TRANSPORTE DE VALORES  SA-  MARISOL NINA LARICO S/P 225/2021                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGO CHEQUE: D-21-99278     , BENEFICIARIO: MARCO ANTONIO QUISPE PATTY                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPOSITO DE EFECTIVO, DEPOSITANTE: REGINA MAMANI PUÑA VDA. DE ALVAREZ, CONCEPTO: PAGO PARCIAL DEUDA DE REGINA MAMANI AL FONDO COMPLEMENTARIO FABRIL, CUENTA DE DEPOSITO: TGN CUENTA TRANSITORIA- M/E                                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -641,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,31 +648,31 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>21775</v>
+        <v>21762</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -722,31 +683,31 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>28368</v>
+        <v>28350</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>905878.71</v>
+        <v>4453903.83</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -757,31 +718,31 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>28372</v>
+        <v>28354</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>0.01</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -792,28 +753,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1023245</v>
+        <v>1023079</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>606</v>
-      </c>
       <c r="G5">
-        <v>1535</v>
+        <v>2902</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
-        <v>3727.57</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -824,28 +788,28 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1023248</v>
+        <v>1023080</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>499</v>
+        <v>606</v>
       </c>
       <c r="G6">
-        <v>7355</v>
+        <v>1535</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>38.9</v>
+        <v>3583.34</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -856,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1023251</v>
+        <v>1023081</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -865,19 +829,19 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="G7">
-        <v>3908</v>
+        <v>5906</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>15000000</v>
+        <v>0.02</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -888,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1023252</v>
+        <v>1023082</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -903,13 +867,13 @@
         <v>6538</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>5980.96</v>
+        <v>5981.49</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -920,28 +884,31 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1023253</v>
+        <v>1023086</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>7187</v>
+        <v>2902</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>10000000</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -952,31 +919,31 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1023268</v>
+        <v>1023089</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G10">
-        <v>5832</v>
+        <v>7954</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>699.13</v>
+        <v>42930</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -987,31 +954,28 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1023269</v>
+        <v>1023090</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>412</v>
+        <v>606</v>
       </c>
       <c r="G11">
-        <v>5832</v>
+        <v>1535</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>687.79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
+        <v>3107.02</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1022,28 +986,28 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1023271</v>
+        <v>1023099</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
       <c r="F12">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="G12">
-        <v>3917</v>
+        <v>7355</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>2500000</v>
+        <v>116.8</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1054,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1023272</v>
+        <v>1023104</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1063,19 +1027,22 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G13">
-        <v>3914</v>
+        <v>3071</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>808036.8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1086,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1023273</v>
+        <v>1023106</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1101,16 +1068,16 @@
         <v>5832</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>342.82</v>
+        <v>16238.5</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1121,31 +1088,28 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1023274</v>
+        <v>1023110</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G15">
-        <v>7954</v>
+        <v>3914</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>120185</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
+        <v>3000000</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1156,31 +1120,28 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>1023277</v>
+        <v>1023117</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G16">
-        <v>7954</v>
+        <v>3917</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
       </c>
       <c r="I16">
-        <v>481200</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
+        <v>2000000</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1191,31 +1152,28 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1023280</v>
+        <v>1023120</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G17">
-        <v>7954</v>
+        <v>3908</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17">
-        <v>669870</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
+        <v>16000000</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1223,31 +1181,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>1023283</v>
+        <v>1747823</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>164</v>
+        <v>499</v>
       </c>
       <c r="G18">
-        <v>7811</v>
+        <v>7355</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>710.3</v>
+        <v>169995.29</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1258,31 +1216,28 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>1750703</v>
+        <v>1747923</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>498</v>
       </c>
       <c r="G19">
-        <v>5896</v>
+        <v>6817</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>46</v>
+        <v>15000000</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1293,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>1750953</v>
+        <v>1747924</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -1305,19 +1260,19 @@
         <v>412</v>
       </c>
       <c r="G20">
-        <v>3987</v>
+        <v>818</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
       </c>
       <c r="I20">
-        <v>12797</v>
+        <v>718935.64</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1328,10 +1283,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>1750955</v>
+        <v>1747926</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -1340,19 +1295,19 @@
         <v>412</v>
       </c>
       <c r="G21">
-        <v>818</v>
+        <v>5970</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21">
-        <v>5000</v>
+        <v>1989.84</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1363,28 +1318,28 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>1750957</v>
+        <v>1747929</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G22">
-        <v>7164</v>
+        <v>4249</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
       </c>
       <c r="I22">
-        <v>44880</v>
+        <v>799.97</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1395,28 +1350,28 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>1750959</v>
+        <v>1747931</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G23">
-        <v>4249</v>
+        <v>5968</v>
       </c>
       <c r="H23" t="s">
         <v>34</v>
       </c>
       <c r="I23">
-        <v>1604.85</v>
+        <v>293447.36</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1427,28 +1382,28 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>1750961</v>
+        <v>1747933</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G24">
-        <v>4249</v>
+        <v>7164</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I24">
-        <v>1631.29</v>
+        <v>144050.3</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1459,31 +1414,28 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>1751094</v>
+        <v>1747935</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="F25">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G25">
-        <v>5970</v>
+        <v>6705</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I25">
-        <v>5959047.86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>49</v>
+        <v>156883.29</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1494,31 +1446,28 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>1751095</v>
+        <v>1747937</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="G26">
-        <v>5970</v>
+        <v>6817</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>3547937.34</v>
-      </c>
-      <c r="J26" t="s">
-        <v>49</v>
+        <v>6000000</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1529,31 +1478,31 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>1751436</v>
+        <v>1747939</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>498</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>1470</v>
+        <v>5896</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I27">
-        <v>4966343.69</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1561,31 +1510,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>1751437</v>
+        <v>1988999</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G28">
-        <v>7164</v>
+        <v>3908</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I28">
-        <v>76750.75</v>
+        <v>16000000</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1593,31 +1542,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1751439</v>
+        <v>1989052</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G29">
-        <v>7164</v>
+        <v>3910</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I29">
-        <v>20843.54</v>
+        <v>6500000</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1625,264 +1574,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>1751441</v>
+        <v>1989068</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>498</v>
+        <v>406</v>
       </c>
       <c r="G30">
-        <v>1470</v>
+        <v>898</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I30">
-        <v>1055</v>
-      </c>
-      <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>1751442</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>499</v>
-      </c>
-      <c r="G31">
-        <v>7355</v>
-      </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31">
-        <v>82060.2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>1751546</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>498</v>
-      </c>
-      <c r="G32">
-        <v>1470</v>
-      </c>
-      <c r="H32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32">
-        <v>1082.52</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>1751547</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>498</v>
-      </c>
-      <c r="G33">
-        <v>1470</v>
-      </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33">
-        <v>1715.05</v>
-      </c>
-      <c r="J33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>1989943</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <v>406</v>
-      </c>
-      <c r="G34">
-        <v>861</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34">
-        <v>40</v>
-      </c>
-      <c r="K34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>1989965</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>403</v>
-      </c>
-      <c r="G35">
-        <v>3917</v>
-      </c>
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35">
-        <v>3000000</v>
-      </c>
-      <c r="K35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>1990005</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>828</v>
-      </c>
-      <c r="G36">
-        <v>3559</v>
-      </c>
-      <c r="H36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36">
-        <v>30000</v>
-      </c>
-      <c r="K36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>1990012</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>403</v>
-      </c>
-      <c r="G37">
-        <v>3910</v>
-      </c>
-      <c r="H37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37">
-        <v>2500000</v>
-      </c>
-      <c r="K37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
